--- a/biology/Zoologie/Gryllotalpa/Gryllotalpa.xlsx
+++ b/biology/Zoologie/Gryllotalpa/Gryllotalpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gryllotalpa est un genre d'insectes orthoptères de la famille des Gryllotalpidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Afrique, en Asie, en Océanie et en Amérique du Nord.
 L'espèce la plus connue en Europe est la courtilière ou taupe-grillon Gryllotalpa gryllotalpa.
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File :
 Gryllotalpa africana Beauvois, 1805
 Gryllotalpa australis Erichson, 1842
 Gryllotalpa babinda Otte &amp; Alexander, 1983
@@ -637,7 +653,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Latreille, 1802 : Histoire naturelle, générale et particulière des Crustacés et Insectes.
